--- a/Analytics Notebooks/Market Yards/market_yard_list.xlsx
+++ b/Analytics Notebooks/Market Yards/market_yard_list.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/Data4Policy/Analytics Notebooks/Market Yards/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB1D91-3B2B-8646-8419-33F85C46B356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="18040" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="324">
   <si>
     <t>market yards list</t>
   </si>
@@ -988,11 +997,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1002,12 +1008,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1145,43 +1153,43 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,26 +1199,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1409,7 +1476,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1428,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,7 +1525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,7 +1551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1562,7 +1629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1588,7 +1655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1614,7 +1681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1640,7 +1707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1666,7 +1733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,9 +1746,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1698,7 +1771,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1717,7 +1790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1743,7 +1816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1769,7 +1842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1795,7 +1868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1821,7 +1894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1847,7 +1920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1873,7 +1946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1899,7 +1972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1925,7 +1998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1951,7 +2024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1964,9 +2037,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1980,7 +2059,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1999,7 +2078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2029,7 +2108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2055,7 +2134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2081,7 +2160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2107,7 +2186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2133,7 +2212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2159,7 +2238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2185,7 +2264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2211,7 +2290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2237,7 +2316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2250,3833 +2329,3843 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D272"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="194" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6719" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s" s="9">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s" s="9">
+      <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s" s="9">
+      <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s" s="9">
+      <c r="C18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s" s="9">
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s" s="8">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s" s="9">
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s" s="8">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s" s="9">
+      <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s" s="9">
+      <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s" s="8">
+      <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s" s="9">
+      <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s" s="8">
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s" s="9">
+      <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="8">
+      <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s" s="9">
+      <c r="C25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s" s="8">
+      <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s" s="9">
+      <c r="C26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="D26" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s" s="8">
+      <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s" s="9">
+      <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="D27" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s" s="8">
+      <c r="B28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s" s="9">
+      <c r="C28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="D28" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s" s="8">
+      <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s" s="9">
+      <c r="C29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="D29" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s" s="8">
+      <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s" s="9">
+      <c r="C30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D30" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s" s="8">
+      <c r="B31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="s" s="9">
+      <c r="C31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D31" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s" s="9">
+      <c r="C32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s" s="8">
+      <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s" s="9">
+      <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="D33" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s" s="8">
+      <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s" s="9">
+      <c r="C34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s" s="9">
+      <c r="C35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="s" s="9">
+      <c r="C36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s" s="9">
+      <c r="C37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D37" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="D37" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" t="s" s="8">
+      <c r="B38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C38" t="s" s="9">
+      <c r="C38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="D38" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s" s="8">
+      <c r="B39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="s" s="9">
+      <c r="C39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D39" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="D39" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s" s="8">
+      <c r="B40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C40" t="s" s="9">
+      <c r="C40" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D40" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="D40" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C41" t="s" s="9">
+      <c r="C41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D41" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="D41" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s" s="8">
+      <c r="B42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C42" t="s" s="9">
+      <c r="C42" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="D42" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s" s="8">
+      <c r="B43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C43" t="s" s="9">
+      <c r="C43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D43" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="D43" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s" s="9">
+      <c r="C44" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D44" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="D44" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s" s="8">
+      <c r="B45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C45" t="s" s="9">
+      <c r="C45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D45" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="D45" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s" s="8">
+      <c r="B46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C46" t="s" s="9">
+      <c r="C46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D46" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="D46" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s" s="8">
+      <c r="B47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C47" t="s" s="9">
+      <c r="C47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D47" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B48" t="s" s="8">
+      <c r="B48" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C48" t="s" s="9">
+      <c r="C48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D48" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B49" t="s" s="8">
+      <c r="B49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C49" t="s" s="9">
+      <c r="C49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D49" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B50" t="s" s="8">
+      <c r="B50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C50" t="s" s="9">
+      <c r="C50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D50" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B51" t="s" s="8">
+      <c r="B51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C51" t="s" s="9">
+      <c r="C51" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D51" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B52" t="s" s="8">
+      <c r="B52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C52" t="s" s="9">
+      <c r="C52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D52" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B53" t="s" s="8">
+      <c r="B53" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C53" t="s" s="9">
+      <c r="C53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D53" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="D53" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B54" t="s" s="8">
+      <c r="B54" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C54" t="s" s="9">
+      <c r="C54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D54" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="D54" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B55" t="s" s="8">
+      <c r="B55" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C55" t="s" s="9">
+      <c r="C55" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D55" t="s" s="9">
+      <c r="D55" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="7">
+    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B56" t="s" s="8">
+      <c r="B56" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C56" t="s" s="9">
+      <c r="C56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D56" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B57" t="s" s="8">
+      <c r="B57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C57" t="s" s="9">
+      <c r="C57" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D57" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="D57" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B58" t="s" s="8">
+      <c r="B58" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C58" t="s" s="9">
+      <c r="C58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D58" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="D58" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B59" t="s" s="8">
+      <c r="B59" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C59" t="s" s="9">
+      <c r="C59" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D59" t="s" s="9">
+      <c r="D59" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="7">
+    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B60" t="s" s="8">
+      <c r="B60" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="s" s="9">
+      <c r="C60" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D60" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="D60" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B61" t="s" s="8">
+      <c r="B61" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C61" t="s" s="9">
+      <c r="C61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D61" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="D61" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B62" t="s" s="8">
+      <c r="B62" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C62" t="s" s="9">
+      <c r="C62" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D62" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="D62" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B63" t="s" s="8">
+      <c r="B63" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C63" t="s" s="9">
+      <c r="C63" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D63" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="D63" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C64" t="s" s="9">
+      <c r="C64" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D64" t="s" s="9">
+      <c r="D64" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="7">
+    <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B65" t="s" s="8">
+      <c r="B65" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C65" t="s" s="9">
+      <c r="C65" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D65" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="D65" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B66" t="s" s="8">
+      <c r="B66" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C66" t="s" s="9">
+      <c r="C66" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D66" t="s" s="9">
+      <c r="D66" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="7">
+    <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B67" t="s" s="8">
+      <c r="B67" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C67" t="s" s="9">
+      <c r="C67" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D67" t="s" s="9">
+      <c r="D67" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="7">
+    <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B68" t="s" s="8">
+      <c r="B68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C68" t="s" s="9">
+      <c r="C68" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D68" t="s" s="9">
+      <c r="D68" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="7">
+    <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="B69" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C69" t="s" s="9">
+      <c r="C69" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D69" t="s" s="9">
+      <c r="D69" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="7">
+    <row r="70" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B70" t="s" s="8">
+      <c r="B70" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C70" t="s" s="9">
+      <c r="C70" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D70" t="s" s="9">
+      <c r="D70" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="7">
+    <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B71" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C71" t="s" s="9">
+      <c r="C71" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D71" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="7">
+      <c r="D71" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B72" t="s" s="8">
+      <c r="B72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C72" t="s" s="9">
+      <c r="C72" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D72" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="7">
+      <c r="D72" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B73" t="s" s="8">
+      <c r="B73" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C73" t="s" s="9">
+      <c r="C73" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D73" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="7">
+      <c r="D73" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B74" t="s" s="8">
+      <c r="B74" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C74" t="s" s="9">
+      <c r="C74" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D74" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="7">
+      <c r="D74" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B75" t="s" s="8">
+      <c r="B75" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C75" t="s" s="9">
+      <c r="C75" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D75" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="7">
+      <c r="D75" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B76" t="s" s="8">
+      <c r="B76" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C76" t="s" s="9">
+      <c r="C76" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D76" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="7">
+      <c r="D76" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B77" t="s" s="8">
+      <c r="B77" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C77" t="s" s="9">
+      <c r="C77" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D77" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="7">
+      <c r="D77" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="B78" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C78" t="s" s="9">
+      <c r="C78" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D78" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="7">
+      <c r="D78" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B79" t="s" s="8">
+      <c r="B79" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C79" t="s" s="9">
+      <c r="C79" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D79" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="7">
+      <c r="D79" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B80" t="s" s="8">
+      <c r="B80" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C80" t="s" s="9">
+      <c r="C80" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D80" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="7">
+      <c r="D80" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B81" t="s" s="8">
+      <c r="B81" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C81" t="s" s="9">
+      <c r="C81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D81" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="7">
+      <c r="D81" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B82" t="s" s="8">
+      <c r="B82" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C82" t="s" s="9">
+      <c r="C82" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D82" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="7">
+      <c r="D82" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B83" t="s" s="8">
+      <c r="B83" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C83" t="s" s="9">
+      <c r="C83" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D83" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="7">
+      <c r="D83" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B84" t="s" s="8">
+      <c r="B84" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C84" t="s" s="9">
+      <c r="C84" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D84" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="7">
+      <c r="D84" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B85" t="s" s="8">
+      <c r="B85" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C85" t="s" s="9">
+      <c r="C85" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D85" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="7">
+      <c r="D85" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B86" t="s" s="8">
+      <c r="B86" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C86" t="s" s="9">
+      <c r="C86" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D86" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="7">
+      <c r="D86" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B87" t="s" s="8">
+      <c r="B87" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C87" t="s" s="9">
+      <c r="C87" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D87" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="7">
+      <c r="D87" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B88" t="s" s="8">
+      <c r="B88" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C88" t="s" s="9">
+      <c r="C88" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D88" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="7">
+      <c r="D88" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B89" t="s" s="8">
+      <c r="B89" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C89" t="s" s="9">
+      <c r="C89" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D89" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="7">
+      <c r="D89" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B90" t="s" s="8">
+      <c r="B90" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C90" t="s" s="9">
+      <c r="C90" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D90" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="7">
+      <c r="D90" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B91" t="s" s="8">
+      <c r="B91" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C91" t="s" s="9">
+      <c r="C91" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D91" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="7">
+      <c r="D91" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B92" t="s" s="8">
+      <c r="B92" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C92" t="s" s="9">
+      <c r="C92" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D92" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="7">
+      <c r="D92" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B93" t="s" s="8">
+      <c r="B93" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C93" t="s" s="9">
+      <c r="C93" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D93" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="7">
+      <c r="D93" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B94" t="s" s="8">
+      <c r="B94" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C94" t="s" s="9">
+      <c r="C94" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D94" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="7">
+      <c r="D94" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B95" t="s" s="8">
+      <c r="B95" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C95" t="s" s="9">
+      <c r="C95" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D95" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="7">
+      <c r="D95" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B96" t="s" s="8">
+      <c r="B96" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C96" t="s" s="9">
+      <c r="C96" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D96" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="7">
+      <c r="D96" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B97" t="s" s="8">
+      <c r="B97" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C97" t="s" s="9">
+      <c r="C97" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D97" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="7">
+      <c r="D97" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B98" t="s" s="8">
+      <c r="B98" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C98" t="s" s="9">
+      <c r="C98" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D98" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="7">
+      <c r="D98" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B99" t="s" s="8">
+      <c r="B99" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C99" t="s" s="9">
+      <c r="C99" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D99" t="s" s="9">
+      <c r="D99" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="7">
+    <row r="100" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B100" t="s" s="8">
+      <c r="B100" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C100" t="s" s="9">
+      <c r="C100" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D100" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="7">
+      <c r="D100" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B101" t="s" s="8">
+      <c r="B101" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C101" t="s" s="9">
+      <c r="C101" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D101" t="s" s="9">
+      <c r="D101" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="7">
+    <row r="102" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B102" t="s" s="8">
+      <c r="B102" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C102" t="s" s="9">
+      <c r="C102" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D102" t="s" s="9">
+      <c r="D102" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="7">
+    <row r="103" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B103" t="s" s="8">
+      <c r="B103" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C103" t="s" s="9">
+      <c r="C103" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D103" t="s" s="9">
+      <c r="D103" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" t="s" s="7">
+    <row r="104" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B104" t="s" s="8">
+      <c r="B104" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C104" t="s" s="9">
+      <c r="C104" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D104" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" t="s" s="7">
+      <c r="D104" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B105" t="s" s="8">
+      <c r="B105" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C105" t="s" s="9">
+      <c r="C105" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D105" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="7">
+      <c r="D105" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B106" t="s" s="8">
+      <c r="B106" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C106" t="s" s="9">
+      <c r="C106" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D106" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="7">
+      <c r="D106" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B107" t="s" s="8">
+      <c r="B107" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C107" t="s" s="9">
+      <c r="C107" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D107" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="7">
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B108" t="s" s="8">
+      <c r="B108" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C108" t="s" s="9">
+      <c r="C108" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D108" t="s" s="9">
+      <c r="D108" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="7">
+    <row r="109" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B109" t="s" s="8">
+      <c r="B109" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C109" t="s" s="9">
+      <c r="C109" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D109" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="7">
+      <c r="D109" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B110" t="s" s="8">
+      <c r="B110" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C110" t="s" s="9">
+      <c r="C110" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D110" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="7">
+      <c r="D110" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B111" t="s" s="8">
+      <c r="B111" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C111" t="s" s="9">
+      <c r="C111" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D111" t="s" s="9">
+      <c r="D111" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="7">
+    <row r="112" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B112" t="s" s="8">
+      <c r="B112" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C112" t="s" s="9">
+      <c r="C112" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D112" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="7">
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B113" t="s" s="8">
+      <c r="B113" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C113" t="s" s="9">
+      <c r="C113" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D113" t="s" s="9">
+      <c r="D113" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="7">
+    <row r="114" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B114" t="s" s="8">
+      <c r="B114" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C114" t="s" s="9">
+      <c r="C114" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D114" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" t="s" s="7">
+      <c r="D114" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B115" t="s" s="8">
+      <c r="B115" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C115" t="s" s="9">
+      <c r="C115" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D115" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="7">
+      <c r="D115" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B116" t="s" s="8">
+      <c r="B116" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C116" t="s" s="9">
+      <c r="C116" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D116" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" t="s" s="7">
+      <c r="D116" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B117" t="s" s="8">
+      <c r="B117" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C117" t="s" s="9">
+      <c r="C117" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D117" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" t="s" s="7">
+      <c r="D117" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B118" t="s" s="8">
+      <c r="B118" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C118" t="s" s="9">
+      <c r="C118" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D118" t="s" s="9">
+      <c r="D118" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" t="s" s="7">
+    <row r="119" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B119" t="s" s="8">
+      <c r="B119" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C119" t="s" s="9">
+      <c r="C119" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D119" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" ht="20.05" customHeight="1">
-      <c r="A120" t="s" s="7">
+      <c r="D119" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B120" t="s" s="8">
+      <c r="B120" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C120" t="s" s="9">
+      <c r="C120" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D120" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" ht="20.05" customHeight="1">
-      <c r="A121" t="s" s="7">
+      <c r="D120" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B121" t="s" s="8">
+      <c r="B121" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C121" t="s" s="9">
+      <c r="C121" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D121" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" t="s" s="7">
+      <c r="D121" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B122" t="s" s="8">
+      <c r="B122" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C122" t="s" s="9">
+      <c r="C122" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D122" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" ht="20.05" customHeight="1">
-      <c r="A123" t="s" s="7">
+      <c r="D122" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B123" t="s" s="8">
+      <c r="B123" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C123" t="s" s="9">
+      <c r="C123" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D123" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" ht="20.05" customHeight="1">
-      <c r="A124" t="s" s="7">
+      <c r="D123" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B124" t="s" s="8">
+      <c r="B124" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C124" t="s" s="9">
+      <c r="C124" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D124" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" t="s" s="7">
+      <c r="D124" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B125" t="s" s="8">
+      <c r="B125" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C125" t="s" s="9">
+      <c r="C125" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D125" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" t="s" s="7">
+      <c r="D125" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B126" t="s" s="8">
+      <c r="B126" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C126" t="s" s="9">
+      <c r="C126" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D126" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" t="s" s="7">
+      <c r="D126" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B127" t="s" s="8">
+      <c r="B127" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C127" t="s" s="9">
+      <c r="C127" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D127" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" t="s" s="7">
+      <c r="D127" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B128" t="s" s="8">
+      <c r="B128" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C128" t="s" s="9">
+      <c r="C128" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D128" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" t="s" s="7">
+      <c r="D128" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B129" t="s" s="8">
+      <c r="B129" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C129" t="s" s="9">
+      <c r="C129" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D129" t="s" s="9">
+      <c r="D129" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" t="s" s="7">
+    <row r="130" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B130" t="s" s="8">
+      <c r="B130" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C130" t="s" s="9">
+      <c r="C130" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D130" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" t="s" s="7">
+      <c r="D130" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B131" t="s" s="8">
+      <c r="B131" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C131" t="s" s="9">
+      <c r="C131" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D131" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" t="s" s="7">
+      <c r="D131" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B132" t="s" s="8">
+      <c r="B132" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C132" t="s" s="9">
+      <c r="C132" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D132" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" t="s" s="7">
+      <c r="D132" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B133" t="s" s="8">
+      <c r="B133" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C133" t="s" s="9">
+      <c r="C133" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D133" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" t="s" s="7">
+      <c r="D133" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B134" t="s" s="8">
+      <c r="B134" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C134" t="s" s="9">
+      <c r="C134" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D134" t="s" s="9">
+      <c r="D134" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" t="s" s="7">
+    <row r="135" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B135" t="s" s="8">
+      <c r="B135" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C135" t="s" s="9">
+      <c r="C135" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D135" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" ht="20.05" customHeight="1">
-      <c r="A136" t="s" s="7">
+      <c r="D135" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B136" t="s" s="8">
+      <c r="B136" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C136" t="s" s="9">
+      <c r="C136" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D136" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" ht="20.05" customHeight="1">
-      <c r="A137" t="s" s="7">
+      <c r="D136" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B137" t="s" s="8">
+      <c r="B137" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C137" t="s" s="9">
+      <c r="C137" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D137" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" t="s" s="7">
+      <c r="D137" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B138" t="s" s="8">
+      <c r="B138" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C138" t="s" s="9">
+      <c r="C138" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D138" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" t="s" s="7">
+      <c r="D138" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B139" t="s" s="8">
+      <c r="B139" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C139" t="s" s="9">
+      <c r="C139" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D139" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" ht="20.05" customHeight="1">
-      <c r="A140" t="s" s="7">
+      <c r="D139" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B140" t="s" s="8">
+      <c r="B140" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C140" t="s" s="9">
+      <c r="C140" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D140" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" ht="20.05" customHeight="1">
-      <c r="A141" t="s" s="7">
+      <c r="D140" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B141" t="s" s="8">
+      <c r="B141" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C141" t="s" s="9">
+      <c r="C141" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D141" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" t="s" s="7">
+      <c r="D141" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B142" t="s" s="8">
+      <c r="B142" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C142" t="s" s="9">
+      <c r="C142" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D142" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" ht="20.05" customHeight="1">
-      <c r="A143" t="s" s="7">
+      <c r="D142" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B143" t="s" s="8">
+      <c r="B143" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C143" t="s" s="9">
+      <c r="C143" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D143" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" ht="20.05" customHeight="1">
-      <c r="A144" t="s" s="7">
+      <c r="D143" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B144" t="s" s="8">
+      <c r="B144" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C144" t="s" s="9">
+      <c r="C144" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D144" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="145" ht="20.05" customHeight="1">
-      <c r="A145" t="s" s="7">
+      <c r="D144" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B145" t="s" s="8">
+      <c r="B145" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C145" t="s" s="9">
+      <c r="C145" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D145" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" ht="20.05" customHeight="1">
-      <c r="A146" t="s" s="7">
+      <c r="D145" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B146" t="s" s="8">
+      <c r="B146" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C146" t="s" s="9">
+      <c r="C146" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D146" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" ht="20.05" customHeight="1">
-      <c r="A147" t="s" s="7">
+      <c r="D146" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B147" t="s" s="8">
+      <c r="B147" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C147" t="s" s="9">
+      <c r="C147" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D147" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="148" ht="20.05" customHeight="1">
-      <c r="A148" t="s" s="7">
+      <c r="D147" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B148" t="s" s="8">
+      <c r="B148" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C148" t="s" s="9">
+      <c r="C148" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D148" t="s" s="9">
+      <c r="D148" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="149" ht="20.05" customHeight="1">
-      <c r="A149" t="s" s="7">
+    <row r="149" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B149" t="s" s="8">
+      <c r="B149" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C149" t="s" s="9">
+      <c r="C149" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D149" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" ht="20.05" customHeight="1">
-      <c r="A150" t="s" s="7">
+      <c r="D149" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B150" t="s" s="8">
+      <c r="B150" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C150" t="s" s="9">
+      <c r="C150" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D150" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="151" ht="20.05" customHeight="1">
-      <c r="A151" t="s" s="7">
+      <c r="D150" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B151" t="s" s="8">
+      <c r="B151" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C151" t="s" s="9">
+      <c r="C151" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D151" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="152" ht="20.05" customHeight="1">
-      <c r="A152" t="s" s="7">
+      <c r="D151" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B152" t="s" s="8">
+      <c r="B152" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C152" t="s" s="9">
+      <c r="C152" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D152" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="7">
+      <c r="D152" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B153" t="s" s="8">
+      <c r="B153" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C153" t="s" s="9">
+      <c r="C153" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D153" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="154" ht="20.05" customHeight="1">
-      <c r="A154" t="s" s="7">
+      <c r="D153" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B154" t="s" s="8">
+      <c r="B154" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C154" t="s" s="9">
+      <c r="C154" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D154" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" ht="20.05" customHeight="1">
-      <c r="A155" t="s" s="7">
+      <c r="D154" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B155" t="s" s="8">
+      <c r="B155" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C155" t="s" s="9">
+      <c r="C155" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D155" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" ht="20.05" customHeight="1">
-      <c r="A156" t="s" s="7">
+      <c r="D155" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B156" t="s" s="8">
+      <c r="B156" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C156" t="s" s="9">
+      <c r="C156" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D156" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="157" ht="20.05" customHeight="1">
-      <c r="A157" t="s" s="7">
+      <c r="D156" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B157" t="s" s="8">
+      <c r="B157" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C157" t="s" s="9">
+      <c r="C157" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D157" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" ht="20.05" customHeight="1">
-      <c r="A158" t="s" s="7">
+      <c r="D157" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B158" t="s" s="8">
+      <c r="B158" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C158" t="s" s="9">
+      <c r="C158" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D158" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" ht="20.05" customHeight="1">
-      <c r="A159" t="s" s="7">
+      <c r="D158" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B159" t="s" s="8">
+      <c r="B159" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C159" t="s" s="9">
+      <c r="C159" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D159" t="s" s="9">
+      <c r="D159" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" ht="20.05" customHeight="1">
-      <c r="A160" t="s" s="7">
+    <row r="160" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B160" t="s" s="8">
+      <c r="B160" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C160" t="s" s="9">
+      <c r="C160" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D160" t="s" s="9">
+      <c r="D160" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="161" ht="20.05" customHeight="1">
-      <c r="A161" t="s" s="7">
+    <row r="161" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B161" t="s" s="8">
+      <c r="B161" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C161" t="s" s="9">
+      <c r="C161" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D161" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="162" ht="20.05" customHeight="1">
-      <c r="A162" t="s" s="7">
+      <c r="D161" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B162" t="s" s="8">
+      <c r="B162" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C162" t="s" s="9">
+      <c r="C162" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D162" t="s" s="9">
+      <c r="D162" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="163" ht="20.05" customHeight="1">
-      <c r="A163" t="s" s="7">
+    <row r="163" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B163" t="s" s="8">
+      <c r="B163" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C163" t="s" s="9">
+      <c r="C163" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D163" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" ht="20.05" customHeight="1">
-      <c r="A164" t="s" s="7">
+      <c r="D163" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B164" t="s" s="8">
+      <c r="B164" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C164" t="s" s="9">
+      <c r="C164" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D164" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" ht="20.05" customHeight="1">
-      <c r="A165" t="s" s="7">
+      <c r="D164" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B165" t="s" s="8">
+      <c r="B165" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C165" t="s" s="9">
+      <c r="C165" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D165" t="s" s="9">
+      <c r="D165" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" ht="20.05" customHeight="1">
-      <c r="A166" t="s" s="7">
+    <row r="166" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B166" t="s" s="8">
+      <c r="B166" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C166" t="s" s="9">
+      <c r="C166" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D166" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167" ht="20.05" customHeight="1">
-      <c r="A167" t="s" s="7">
+      <c r="D166" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B167" t="s" s="8">
+      <c r="B167" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C167" t="s" s="9">
+      <c r="C167" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D167" s="10">
+      <c r="D167" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="20.05" customHeight="1">
-      <c r="A168" t="s" s="7">
+    <row r="168" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B168" t="s" s="8">
+      <c r="B168" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C168" t="s" s="9">
+      <c r="C168" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D168" t="s" s="9">
+      <c r="D168" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="169" ht="20.05" customHeight="1">
-      <c r="A169" t="s" s="7">
+    <row r="169" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B169" t="s" s="8">
+      <c r="B169" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C169" t="s" s="9">
+      <c r="C169" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D169" t="s" s="9">
+      <c r="D169" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="170" ht="20.05" customHeight="1">
-      <c r="A170" t="s" s="7">
+    <row r="170" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B170" t="s" s="8">
+      <c r="B170" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C170" t="s" s="9">
+      <c r="C170" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D170" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" ht="20.05" customHeight="1">
-      <c r="A171" t="s" s="7">
+      <c r="D170" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B171" t="s" s="8">
+      <c r="B171" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C171" t="s" s="9">
+      <c r="C171" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D171" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" ht="20.05" customHeight="1">
-      <c r="A172" t="s" s="7">
+      <c r="D171" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B172" t="s" s="8">
+      <c r="B172" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C172" t="s" s="9">
+      <c r="C172" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D172" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" ht="20.05" customHeight="1">
-      <c r="A173" t="s" s="7">
+      <c r="D172" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B173" t="s" s="8">
+      <c r="B173" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C173" t="s" s="9">
+      <c r="C173" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D173" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" ht="20.05" customHeight="1">
-      <c r="A174" t="s" s="7">
+      <c r="D173" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B174" t="s" s="8">
+      <c r="B174" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C174" t="s" s="9">
+      <c r="C174" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D174" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" ht="20.05" customHeight="1">
-      <c r="A175" t="s" s="7">
+      <c r="D174" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B175" t="s" s="8">
+      <c r="B175" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C175" t="s" s="9">
+      <c r="C175" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D175" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" ht="20.05" customHeight="1">
-      <c r="A176" t="s" s="7">
+      <c r="D175" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B176" t="s" s="8">
+      <c r="B176" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C176" t="s" s="9">
+      <c r="C176" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D176" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" ht="20.05" customHeight="1">
-      <c r="A177" t="s" s="7">
+      <c r="D176" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B177" t="s" s="8">
+      <c r="B177" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C177" t="s" s="9">
+      <c r="C177" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D177" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="178" ht="20.05" customHeight="1">
-      <c r="A178" t="s" s="7">
+      <c r="D177" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B178" t="s" s="8">
+      <c r="B178" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C178" t="s" s="9">
+      <c r="C178" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D178" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" ht="20.05" customHeight="1">
-      <c r="A179" t="s" s="7">
+      <c r="D178" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B179" t="s" s="8">
+      <c r="B179" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C179" t="s" s="9">
+      <c r="C179" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D179" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="180" ht="20.05" customHeight="1">
-      <c r="A180" t="s" s="7">
+      <c r="D179" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B180" t="s" s="8">
+      <c r="B180" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C180" t="s" s="9">
+      <c r="C180" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D180" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="181" ht="20.05" customHeight="1">
-      <c r="A181" t="s" s="7">
+      <c r="D180" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B181" t="s" s="8">
+      <c r="B181" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C181" t="s" s="9">
+      <c r="C181" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D181" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" ht="20.05" customHeight="1">
-      <c r="A182" t="s" s="7">
+      <c r="D181" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B182" t="s" s="8">
+      <c r="B182" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C182" t="s" s="9">
+      <c r="C182" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D182" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="183" ht="20.05" customHeight="1">
-      <c r="A183" t="s" s="7">
+      <c r="D182" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B183" t="s" s="8">
+      <c r="B183" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C183" t="s" s="9">
+      <c r="C183" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D183" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" ht="20.05" customHeight="1">
-      <c r="A184" t="s" s="7">
+      <c r="D183" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B184" t="s" s="8">
+      <c r="B184" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C184" t="s" s="9">
+      <c r="C184" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D184" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" ht="20.05" customHeight="1">
-      <c r="A185" t="s" s="7">
+      <c r="D184" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B185" t="s" s="8">
+      <c r="B185" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C185" t="s" s="9">
+      <c r="C185" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D185" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" ht="20.05" customHeight="1">
-      <c r="A186" t="s" s="7">
+      <c r="D185" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B186" t="s" s="8">
+      <c r="B186" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C186" t="s" s="9">
+      <c r="C186" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D186" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="187" ht="20.05" customHeight="1">
-      <c r="A187" t="s" s="7">
+      <c r="D186" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B187" t="s" s="8">
+      <c r="B187" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C187" t="s" s="9">
+      <c r="C187" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D187" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" ht="20.05" customHeight="1">
-      <c r="A188" t="s" s="7">
+      <c r="D187" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B188" t="s" s="8">
+      <c r="B188" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C188" t="s" s="9">
+      <c r="C188" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D188" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" ht="20.05" customHeight="1">
-      <c r="A189" t="s" s="7">
+      <c r="D188" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B189" t="s" s="8">
+      <c r="B189" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C189" t="s" s="9">
+      <c r="C189" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D189" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" ht="20.05" customHeight="1">
-      <c r="A190" t="s" s="7">
+      <c r="D189" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B190" t="s" s="8">
+      <c r="B190" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C190" t="s" s="9">
+      <c r="C190" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D190" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" ht="20.05" customHeight="1">
-      <c r="A191" t="s" s="7">
+      <c r="D190" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B191" t="s" s="8">
+      <c r="B191" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C191" t="s" s="9">
+      <c r="C191" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D191" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" ht="20.05" customHeight="1">
-      <c r="A192" t="s" s="7">
+      <c r="D191" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B192" t="s" s="8">
+      <c r="B192" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C192" t="s" s="9">
+      <c r="C192" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D192" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" ht="20.05" customHeight="1">
-      <c r="A193" t="s" s="7">
+      <c r="D192" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B193" t="s" s="8">
+      <c r="B193" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C193" t="s" s="9">
+      <c r="C193" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D193" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="194" ht="20.05" customHeight="1">
-      <c r="A194" t="s" s="7">
+      <c r="D193" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B194" t="s" s="8">
+      <c r="B194" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C194" t="s" s="9">
+      <c r="C194" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D194" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" ht="20.05" customHeight="1">
-      <c r="A195" t="s" s="7">
+      <c r="D194" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B195" t="s" s="8">
+      <c r="B195" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C195" t="s" s="9">
+      <c r="C195" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D195" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="196" ht="20.05" customHeight="1">
-      <c r="A196" t="s" s="7">
+      <c r="D195" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B196" t="s" s="8">
+      <c r="B196" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C196" t="s" s="9">
+      <c r="C196" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D196" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="197" ht="20.05" customHeight="1">
-      <c r="A197" t="s" s="7">
+      <c r="D196" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B197" t="s" s="8">
+      <c r="B197" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C197" t="s" s="9">
+      <c r="C197" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D197" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="198" ht="20.05" customHeight="1">
-      <c r="A198" t="s" s="7">
+      <c r="D197" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B198" t="s" s="8">
+      <c r="B198" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C198" t="s" s="9">
+      <c r="C198" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D198" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="199" ht="20.05" customHeight="1">
-      <c r="A199" t="s" s="7">
+      <c r="D198" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B199" t="s" s="8">
+      <c r="B199" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C199" t="s" s="9">
+      <c r="C199" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D199" t="s" s="9">
+      <c r="D199" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="200" ht="20.05" customHeight="1">
-      <c r="A200" t="s" s="7">
+    <row r="200" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B200" t="s" s="8">
+      <c r="B200" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C200" t="s" s="9">
+      <c r="C200" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D200" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" ht="20.05" customHeight="1">
-      <c r="A201" t="s" s="7">
+      <c r="D200" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B201" t="s" s="8">
+      <c r="B201" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C201" t="s" s="9">
+      <c r="C201" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D201" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="202" ht="20.05" customHeight="1">
-      <c r="A202" t="s" s="7">
+      <c r="D201" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B202" t="s" s="8">
+      <c r="B202" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C202" t="s" s="9">
+      <c r="C202" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D202" t="s" s="9">
+      <c r="D202" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="203" ht="20.05" customHeight="1">
-      <c r="A203" t="s" s="7">
+    <row r="203" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B203" t="s" s="8">
+      <c r="B203" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C203" t="s" s="9">
+      <c r="C203" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D203" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" ht="20.05" customHeight="1">
-      <c r="A204" t="s" s="7">
+      <c r="D203" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B204" t="s" s="8">
+      <c r="B204" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C204" t="s" s="9">
+      <c r="C204" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D204" t="s" s="9">
+      <c r="D204" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="205" ht="20.05" customHeight="1">
-      <c r="A205" t="s" s="7">
+    <row r="205" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B205" t="s" s="8">
+      <c r="B205" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C205" t="s" s="9">
+      <c r="C205" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D205" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" ht="20.05" customHeight="1">
-      <c r="A206" t="s" s="7">
+      <c r="D205" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B206" t="s" s="8">
+      <c r="B206" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C206" t="s" s="9">
+      <c r="C206" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D206" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="207" ht="20.05" customHeight="1">
-      <c r="A207" t="s" s="7">
+      <c r="D206" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B207" t="s" s="8">
+      <c r="B207" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C207" t="s" s="9">
+      <c r="C207" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D207" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" ht="20.05" customHeight="1">
-      <c r="A208" t="s" s="7">
+      <c r="D207" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B208" t="s" s="8">
+      <c r="B208" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C208" t="s" s="9">
+      <c r="C208" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D208" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" ht="20.05" customHeight="1">
-      <c r="A209" t="s" s="7">
+      <c r="D208" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B209" t="s" s="8">
+      <c r="B209" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C209" t="s" s="9">
+      <c r="C209" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D209" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" ht="20.05" customHeight="1">
-      <c r="A210" t="s" s="7">
+      <c r="D209" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B210" t="s" s="8">
+      <c r="B210" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C210" t="s" s="9">
+      <c r="C210" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D210" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="211" ht="20.05" customHeight="1">
-      <c r="A211" t="s" s="7">
+      <c r="D210" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B211" t="s" s="8">
+      <c r="B211" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C211" t="s" s="9">
+      <c r="C211" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D211" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" ht="20.05" customHeight="1">
-      <c r="A212" t="s" s="7">
+      <c r="D211" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B212" t="s" s="8">
+      <c r="B212" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C212" t="s" s="9">
+      <c r="C212" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D212" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="213" ht="20.05" customHeight="1">
-      <c r="A213" t="s" s="7">
+      <c r="D212" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B213" t="s" s="8">
+      <c r="B213" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C213" t="s" s="9">
+      <c r="C213" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D213" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" ht="20.05" customHeight="1">
-      <c r="A214" t="s" s="7">
+      <c r="D213" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B214" t="s" s="8">
+      <c r="B214" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C214" t="s" s="9">
+      <c r="C214" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D214" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="215" ht="20.05" customHeight="1">
-      <c r="A215" t="s" s="7">
+      <c r="D214" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B215" t="s" s="8">
+      <c r="B215" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C215" t="s" s="9">
+      <c r="C215" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D215" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" ht="20.05" customHeight="1">
-      <c r="A216" t="s" s="7">
+      <c r="D215" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B216" t="s" s="8">
+      <c r="B216" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C216" t="s" s="9">
+      <c r="C216" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D216" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" ht="20.05" customHeight="1">
-      <c r="A217" t="s" s="7">
+      <c r="D216" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B217" t="s" s="8">
+      <c r="B217" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C217" t="s" s="9">
+      <c r="C217" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D217" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" ht="20.05" customHeight="1">
-      <c r="A218" t="s" s="7">
+      <c r="D217" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B218" t="s" s="8">
+      <c r="B218" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C218" t="s" s="9">
+      <c r="C218" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D218" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" ht="20.05" customHeight="1">
-      <c r="A219" t="s" s="7">
+      <c r="D218" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B219" t="s" s="8">
+      <c r="B219" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C219" t="s" s="9">
+      <c r="C219" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D219" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" ht="20.05" customHeight="1">
-      <c r="A220" t="s" s="7">
+      <c r="D219" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B220" t="s" s="8">
+      <c r="B220" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C220" t="s" s="9">
+      <c r="C220" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D220" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" ht="20.05" customHeight="1">
-      <c r="A221" t="s" s="7">
+      <c r="D220" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B221" t="s" s="8">
+      <c r="B221" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C221" t="s" s="9">
+      <c r="C221" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D221" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" ht="20.05" customHeight="1">
-      <c r="A222" t="s" s="7">
+      <c r="D221" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B222" t="s" s="8">
+      <c r="B222" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C222" t="s" s="9">
+      <c r="C222" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D222" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="223" ht="20.05" customHeight="1">
-      <c r="A223" t="s" s="7">
+      <c r="D222" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B223" t="s" s="8">
+      <c r="B223" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C223" t="s" s="9">
+      <c r="C223" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D223" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" ht="20.05" customHeight="1">
-      <c r="A224" t="s" s="7">
+      <c r="D223" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B224" t="s" s="8">
+      <c r="B224" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C224" t="s" s="9">
+      <c r="C224" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D224" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" ht="20.05" customHeight="1">
-      <c r="A225" t="s" s="7">
+      <c r="D224" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B225" t="s" s="8">
+      <c r="B225" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C225" t="s" s="9">
+      <c r="C225" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D225" t="s" s="9">
+      <c r="D225" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="226" ht="20.05" customHeight="1">
-      <c r="A226" t="s" s="7">
+    <row r="226" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B226" t="s" s="8">
+      <c r="B226" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C226" t="s" s="9">
+      <c r="C226" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D226" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="227" ht="20.05" customHeight="1">
-      <c r="A227" t="s" s="7">
+      <c r="D226" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B227" t="s" s="8">
+      <c r="B227" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C227" t="s" s="9">
+      <c r="C227" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D227" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" ht="20.05" customHeight="1">
-      <c r="A228" t="s" s="7">
+      <c r="D227" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B228" t="s" s="8">
+      <c r="B228" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C228" t="s" s="9">
+      <c r="C228" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D228" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" ht="20.05" customHeight="1">
-      <c r="A229" t="s" s="7">
+      <c r="D228" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B229" t="s" s="8">
+      <c r="B229" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C229" t="s" s="9">
+      <c r="C229" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D229" t="s" s="9">
+      <c r="D229" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="230" ht="20.05" customHeight="1">
-      <c r="A230" t="s" s="7">
+    <row r="230" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B230" t="s" s="8">
+      <c r="B230" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C230" t="s" s="9">
+      <c r="C230" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D230" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" ht="20.05" customHeight="1">
-      <c r="A231" t="s" s="7">
+      <c r="D230" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B231" t="s" s="8">
+      <c r="B231" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C231" t="s" s="9">
+      <c r="C231" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D231" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="232" ht="20.05" customHeight="1">
-      <c r="A232" t="s" s="7">
+      <c r="D231" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B232" t="s" s="8">
+      <c r="B232" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C232" t="s" s="9">
+      <c r="C232" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D232" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="233" ht="20.05" customHeight="1">
-      <c r="A233" t="s" s="7">
+      <c r="D232" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B233" t="s" s="8">
+      <c r="B233" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C233" t="s" s="9">
+      <c r="C233" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D233" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="234" ht="20.05" customHeight="1">
-      <c r="A234" t="s" s="7">
+      <c r="D233" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B234" t="s" s="8">
+      <c r="B234" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C234" t="s" s="9">
+      <c r="C234" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D234" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="235" ht="20.05" customHeight="1">
-      <c r="A235" t="s" s="7">
+      <c r="D234" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B235" t="s" s="8">
+      <c r="B235" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C235" t="s" s="9">
+      <c r="C235" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D235" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="236" ht="20.05" customHeight="1">
-      <c r="A236" t="s" s="7">
+      <c r="D235" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B236" t="s" s="8">
+      <c r="B236" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C236" t="s" s="9">
+      <c r="C236" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D236" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" ht="20.05" customHeight="1">
-      <c r="A237" t="s" s="7">
+      <c r="D236" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B237" t="s" s="8">
+      <c r="B237" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C237" t="s" s="9">
+      <c r="C237" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D237" t="s" s="9">
+      <c r="D237" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="238" ht="20.05" customHeight="1">
-      <c r="A238" t="s" s="7">
+    <row r="238" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B238" t="s" s="8">
+      <c r="B238" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C238" t="s" s="9">
+      <c r="C238" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D238" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="239" ht="20.05" customHeight="1">
-      <c r="A239" t="s" s="7">
+      <c r="D238" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B239" t="s" s="8">
+      <c r="B239" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C239" t="s" s="9">
+      <c r="C239" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D239" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="240" ht="20.05" customHeight="1">
-      <c r="A240" t="s" s="7">
+      <c r="D239" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B240" t="s" s="8">
+      <c r="B240" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C240" t="s" s="9">
+      <c r="C240" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D240" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" ht="20.05" customHeight="1">
-      <c r="A241" t="s" s="7">
+      <c r="D240" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B241" t="s" s="8">
+      <c r="B241" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C241" t="s" s="9">
+      <c r="C241" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D241" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="242" ht="20.05" customHeight="1">
-      <c r="A242" t="s" s="7">
+      <c r="D241" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B242" t="s" s="8">
+      <c r="B242" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C242" t="s" s="9">
+      <c r="C242" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D242" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="243" ht="20.05" customHeight="1">
-      <c r="A243" t="s" s="7">
+      <c r="D242" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B243" t="s" s="8">
+      <c r="B243" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C243" t="s" s="9">
+      <c r="C243" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D243" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="244" ht="20.05" customHeight="1">
-      <c r="A244" t="s" s="7">
+      <c r="D243" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B244" t="s" s="8">
+      <c r="B244" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C244" t="s" s="9">
+      <c r="C244" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D244" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="245" ht="20.05" customHeight="1">
-      <c r="A245" t="s" s="7">
+      <c r="D244" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B245" t="s" s="8">
+      <c r="B245" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C245" t="s" s="9">
+      <c r="C245" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D245" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" ht="20.05" customHeight="1">
-      <c r="A246" t="s" s="7">
+      <c r="D245" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B246" t="s" s="8">
+      <c r="B246" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C246" t="s" s="9">
+      <c r="C246" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D246" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" ht="20.05" customHeight="1">
-      <c r="A247" t="s" s="7">
+      <c r="D246" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B247" t="s" s="8">
+      <c r="B247" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C247" t="s" s="9">
+      <c r="C247" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D247" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" ht="20.05" customHeight="1">
-      <c r="A248" t="s" s="7">
+      <c r="D247" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B248" t="s" s="8">
+      <c r="B248" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C248" t="s" s="9">
+      <c r="C248" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D248" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" ht="20.05" customHeight="1">
-      <c r="A249" t="s" s="7">
+      <c r="D248" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B249" t="s" s="8">
+      <c r="B249" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C249" t="s" s="9">
+      <c r="C249" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D249" t="s" s="9">
+      <c r="D249" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="250" ht="20.05" customHeight="1">
-      <c r="A250" t="s" s="7">
+    <row r="250" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B250" t="s" s="8">
+      <c r="B250" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C250" t="s" s="9">
+      <c r="C250" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D250" t="s" s="9">
+      <c r="D250" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="251" ht="20.05" customHeight="1">
-      <c r="A251" t="s" s="7">
+    <row r="251" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B251" t="s" s="8">
+      <c r="B251" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C251" t="s" s="9">
+      <c r="C251" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D251" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="252" ht="20.05" customHeight="1">
-      <c r="A252" t="s" s="7">
+      <c r="D251" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B252" t="s" s="8">
+      <c r="B252" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C252" t="s" s="9">
+      <c r="C252" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D252" t="s" s="9">
+      <c r="D252" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="253" ht="20.05" customHeight="1">
-      <c r="A253" t="s" s="7">
+    <row r="253" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B253" t="s" s="8">
+      <c r="B253" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C253" t="s" s="9">
+      <c r="C253" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D253" t="s" s="9">
+      <c r="D253" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="254" ht="20.05" customHeight="1">
-      <c r="A254" t="s" s="7">
+    <row r="254" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B254" t="s" s="8">
+      <c r="B254" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C254" t="s" s="9">
+      <c r="C254" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D254" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="255" ht="20.05" customHeight="1">
-      <c r="A255" t="s" s="7">
+      <c r="D254" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B255" t="s" s="8">
+      <c r="B255" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C255" t="s" s="9">
+      <c r="C255" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D255" t="s" s="9">
+      <c r="D255" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="256" ht="20.05" customHeight="1">
-      <c r="A256" t="s" s="7">
+    <row r="256" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B256" t="s" s="8">
+      <c r="B256" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C256" t="s" s="9">
+      <c r="C256" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D256" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" ht="20.05" customHeight="1">
-      <c r="A257" t="s" s="7">
+      <c r="D256" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B257" t="s" s="8">
+      <c r="B257" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C257" t="s" s="9">
+      <c r="C257" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D257" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" ht="20.05" customHeight="1">
-      <c r="A258" t="s" s="7">
+      <c r="D257" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B258" t="s" s="8">
+      <c r="B258" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C258" t="s" s="9">
+      <c r="C258" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D258" t="s" s="9">
+      <c r="D258" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="259" ht="20.05" customHeight="1">
-      <c r="A259" t="s" s="7">
+    <row r="259" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B259" t="s" s="8">
+      <c r="B259" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C259" t="s" s="9">
+      <c r="C259" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D259" t="s" s="9">
+      <c r="D259" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="260" ht="20.05" customHeight="1">
-      <c r="A260" t="s" s="7">
+    <row r="260" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B260" t="s" s="8">
+      <c r="B260" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C260" t="s" s="9">
+      <c r="C260" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D260" t="s" s="9">
+      <c r="D260" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="261" ht="20.05" customHeight="1">
-      <c r="A261" t="s" s="7">
+    <row r="261" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B261" t="s" s="8">
+      <c r="B261" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C261" t="s" s="9">
+      <c r="C261" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D261" t="s" s="9">
+      <c r="D261" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="262" ht="20.05" customHeight="1">
-      <c r="A262" t="s" s="7">
+    <row r="262" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B262" t="s" s="8">
+      <c r="B262" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C262" t="s" s="9">
+      <c r="C262" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D262" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="263" ht="20.05" customHeight="1">
-      <c r="A263" t="s" s="7">
+      <c r="D262" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B263" t="s" s="8">
+      <c r="B263" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C263" t="s" s="9">
+      <c r="C263" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D263" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="264" ht="20.05" customHeight="1">
-      <c r="A264" t="s" s="7">
+      <c r="D263" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B264" t="s" s="8">
+      <c r="B264" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C264" t="s" s="9">
+      <c r="C264" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D264" t="s" s="9">
+      <c r="D264" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="265" ht="20.05" customHeight="1">
-      <c r="A265" t="s" s="7">
+    <row r="265" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B265" t="s" s="8">
+      <c r="B265" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C265" t="s" s="9">
+      <c r="C265" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D265" t="s" s="9">
+      <c r="D265" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="266" ht="20.05" customHeight="1">
-      <c r="A266" t="s" s="7">
+    <row r="266" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B266" t="s" s="8">
+      <c r="B266" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C266" t="s" s="9">
+      <c r="C266" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D266" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="267" ht="20.05" customHeight="1">
-      <c r="A267" t="s" s="7">
+      <c r="D266" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B267" t="s" s="8">
+      <c r="B267" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C267" t="s" s="9">
+      <c r="C267" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D267" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="268" ht="20.05" customHeight="1">
-      <c r="A268" t="s" s="7">
+      <c r="D267" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B268" t="s" s="8">
+      <c r="B268" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C268" t="s" s="9">
+      <c r="C268" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D268" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" ht="20.05" customHeight="1">
-      <c r="A269" t="s" s="7">
+      <c r="D268" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B269" t="s" s="8">
+      <c r="B269" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C269" t="s" s="9">
+      <c r="C269" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D269" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" ht="20.05" customHeight="1">
-      <c r="A270" t="s" s="7">
+      <c r="D269" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B270" t="s" s="8">
+      <c r="B270" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C270" t="s" s="9">
+      <c r="C270" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D270" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="271" ht="20.05" customHeight="1">
-      <c r="A271" t="s" s="7">
+      <c r="D270" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B271" t="s" s="8">
+      <c r="B271" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C271" t="s" s="9">
+      <c r="C271" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D271" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="272" ht="20.05" customHeight="1">
-      <c r="A272" t="s" s="7">
+      <c r="D271" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B272" t="s" s="8">
+      <c r="B272" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C272" t="s" s="9">
+      <c r="C272" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D272" t="s" s="9">
+      <c r="D272" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6085,7 +6174,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
